--- a/Appendex.xlsx
+++ b/Appendex.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRERNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manoj\PRERNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2469FF-45A8-4F0B-A8F3-6A6D5D957F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16005F6-5FA0-4B58-B2FC-88964CB42AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6BBC85DB-55C2-41B4-8C3B-B661513DA081}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{6BBC85DB-55C2-41B4-8C3B-B661513DA081}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="A2-JObs" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1024">
   <si>
     <t>farmer_id</t>
   </si>
@@ -2764,19 +2765,373 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>FarmerID</t>
+  </si>
+  <si>
+    <t>member_name</t>
+  </si>
+  <si>
+    <t>GenAge</t>
+  </si>
+  <si>
+    <t>member_education</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>higher_secondary</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>postgraduate</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>M39</t>
+  </si>
+  <si>
+    <t>Vishal Deepak Chavan</t>
+  </si>
+  <si>
+    <t>Deepak Rajendra Shinde</t>
+  </si>
+  <si>
+    <t>Nilesh Balasaheb Patil</t>
+  </si>
+  <si>
+    <t>Sagar Father Koli</t>
+  </si>
+  <si>
+    <t>Rahul Prakash Phuse</t>
+  </si>
+  <si>
+    <t>Lokesh Sharad Patil</t>
+  </si>
+  <si>
+    <t>Sanjay Sahebrao Patil</t>
+  </si>
+  <si>
+    <t>Yogesh Balu Patil</t>
+  </si>
+  <si>
+    <t>Shailendra Chotu Patil</t>
+  </si>
+  <si>
+    <t>Jayesh Devidas Patil</t>
+  </si>
+  <si>
+    <t>Hemant Valmik Patil</t>
+  </si>
+  <si>
+    <t>Pradeep Uttamrao Patil</t>
+  </si>
+  <si>
+    <t>Mukesh Pradip Patil</t>
+  </si>
+  <si>
+    <t>Somnath Raju Patil</t>
+  </si>
+  <si>
+    <t>Ganesh Bhalchandra Patil</t>
+  </si>
+  <si>
+    <t>Swapnil Ishwar Hire</t>
+  </si>
+  <si>
+    <t>Avinash Prakash Patil</t>
+  </si>
+  <si>
+    <t>Nikhil Bapu Gawande</t>
+  </si>
+  <si>
+    <t>Pawan Dashrath Rice</t>
+  </si>
+  <si>
+    <t>Vijay Kailas Patil</t>
+  </si>
+  <si>
+    <t>Vishwajit Bhagwan Patil</t>
+  </si>
+  <si>
+    <t>Umesh Prem Singh Pawar</t>
+  </si>
+  <si>
+    <t>Kiran Prem Singh Pawar</t>
+  </si>
+  <si>
+    <t>Sagar Gajanan Ghugre</t>
+  </si>
+  <si>
+    <t>Manisha Mangal Rathore</t>
+  </si>
+  <si>
+    <t>Yogesh Baliram Rathod</t>
+  </si>
+  <si>
+    <t>Dharmaraj Ananda Chaudhary</t>
+  </si>
+  <si>
+    <t>Mayur Virbhan Castor</t>
+  </si>
+  <si>
+    <t>Vivek Anil Patil</t>
+  </si>
+  <si>
+    <t>Kalpesh Anil Patil</t>
+  </si>
+  <si>
+    <t>Jai Rajesh Patil</t>
+  </si>
+  <si>
+    <t>Valmik Namdev Marathe</t>
+  </si>
+  <si>
+    <t>Sandeep Ramesh Patil</t>
+  </si>
+  <si>
+    <t>Ganesh Sanjay Sonawane</t>
+  </si>
+  <si>
+    <t>Vaibhav Pandit Sapkal</t>
+  </si>
+  <si>
+    <t>Akash Kawarsingh Patil</t>
+  </si>
+  <si>
+    <t>Vivek Arun Lawande</t>
+  </si>
+  <si>
+    <t>Harshal Ananda Patil</t>
+  </si>
+  <si>
+    <t>Ganesh Ravindra Dahake (Salunke)</t>
+  </si>
+  <si>
+    <t>Vaishali Jijabarao Chaudhary</t>
+  </si>
+  <si>
+    <t>Ketan Vikram Bhirud</t>
+  </si>
+  <si>
+    <t>Anil Nanda Paul</t>
+  </si>
+  <si>
+    <t>Ritesh Dadarao Deshmukh</t>
+  </si>
+  <si>
+    <t>Milind Madhukar Jagtap</t>
+  </si>
+  <si>
+    <t>Vaishali Shivaji Group</t>
+  </si>
+  <si>
+    <t>Karan Singh Sunil Patil</t>
+  </si>
+  <si>
+    <t>Harshal Bhagwat Says</t>
+  </si>
+  <si>
+    <t>Sagar Suklal Patil</t>
+  </si>
+  <si>
+    <t>Sopnil Kailas Gawli</t>
+  </si>
+  <si>
+    <t>Akshay Kailash Gawli</t>
+  </si>
+  <si>
+    <t>Sanjay Vishwanath Koli</t>
+  </si>
+  <si>
+    <t>Rahul Prakash Teli</t>
+  </si>
+  <si>
+    <t>Sunil Ashok Borse</t>
+  </si>
+  <si>
+    <t>Nimba Ashok Borse</t>
+  </si>
+  <si>
+    <t>Lalita Bharat Patil</t>
+  </si>
+  <si>
+    <t>Ramakrishna Sanjay Mahajan</t>
+  </si>
+  <si>
+    <t>Kunal Ganesh Patil</t>
+  </si>
+  <si>
+    <t>Darshan Ganesh Patil</t>
+  </si>
+  <si>
+    <t>Gopi Ravindra Patil</t>
+  </si>
+  <si>
+    <t>Gopal Shivaji Patil</t>
+  </si>
+  <si>
+    <t>Rajendra Premraj Koli</t>
+  </si>
+  <si>
+    <t>Yogesh Rajendra Patil</t>
+  </si>
+  <si>
+    <t>Gopal Dnyaneshwar Gaikwad</t>
+  </si>
+  <si>
+    <t>Prakash Dnyaneshwar Gaikwad</t>
+  </si>
+  <si>
+    <t>Yogesh Suresh Patil</t>
+  </si>
+  <si>
+    <t>Vasudev Bhagwan Patil</t>
+  </si>
+  <si>
+    <t>Nilesh Sanjay Patil</t>
+  </si>
+  <si>
+    <t>Tripti Sanjay Patil</t>
+  </si>
+  <si>
+    <t>Rohit Ramesh Jagtap</t>
+  </si>
+  <si>
+    <t>Tushar Magan Chavan</t>
+  </si>
+  <si>
+    <t>Ashwini Ganesh Saidane</t>
+  </si>
+  <si>
+    <t>Nandini Ganesh Saidane</t>
+  </si>
+  <si>
+    <t>Praveen Adhikar Patil</t>
+  </si>
+  <si>
+    <t>Sawan Yuvraj Singh Patil</t>
+  </si>
+  <si>
+    <t>Pawan Yuvraj Singh Patil</t>
+  </si>
+  <si>
+    <t>Jitendra Dangal Patil</t>
+  </si>
+  <si>
+    <t>Gajanan Yashwant Koli</t>
+  </si>
+  <si>
+    <t>Yogesh Eknath Patil</t>
+  </si>
+  <si>
+    <t>Dignesh Dangal Patil</t>
+  </si>
+  <si>
+    <t>Nakul Gondu Koli (Pimpalkar)</t>
+  </si>
+  <si>
+    <t>Atul Gondu Koli (Pimpalkar)</t>
+  </si>
+  <si>
+    <t>Sagar Gondu Koli (Pimpalkar)</t>
+  </si>
+  <si>
+    <t>Dnyaneshwar Bhaskar Patil</t>
+  </si>
+  <si>
+    <t>Shraddha Arun Bhavasar</t>
+  </si>
+  <si>
+    <t>Village</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2787,7 +3142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2795,17 +3150,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5053,7 +5429,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AD87AD0-78DB-4711-99C4-E012F29230FD}" name="PivotTable9" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AD87AD0-78DB-4711-99C4-E012F29230FD}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J2:N41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5584,15 +5960,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -5609,7 +5985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>857</v>
       </c>
@@ -5626,7 +6002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>857</v>
       </c>
@@ -5643,7 +6019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>857</v>
       </c>
@@ -5660,7 +6036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>857</v>
       </c>
@@ -5677,7 +6053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>857</v>
       </c>
@@ -5694,7 +6070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>857</v>
       </c>
@@ -5711,7 +6087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>857</v>
       </c>
@@ -5728,7 +6104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>857</v>
       </c>
@@ -5745,7 +6121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>857</v>
       </c>
@@ -5762,7 +6138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>857</v>
       </c>
@@ -5779,7 +6155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>857</v>
       </c>
@@ -5796,7 +6172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>857</v>
       </c>
@@ -5813,7 +6189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>857</v>
       </c>
@@ -5830,7 +6206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>857</v>
       </c>
@@ -5847,7 +6223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>857</v>
       </c>
@@ -5864,7 +6240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>857</v>
       </c>
@@ -5881,7 +6257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>857</v>
       </c>
@@ -5898,7 +6274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>857</v>
       </c>
@@ -5915,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>857</v>
       </c>
@@ -5932,7 +6308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>857</v>
       </c>
@@ -5949,7 +6325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>857</v>
       </c>
@@ -5966,7 +6342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>857</v>
       </c>
@@ -5983,7 +6359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>857</v>
       </c>
@@ -6000,7 +6376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>857</v>
       </c>
@@ -6017,7 +6393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>857</v>
       </c>
@@ -6034,7 +6410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>857</v>
       </c>
@@ -6051,7 +6427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>857</v>
       </c>
@@ -6068,7 +6444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>857</v>
       </c>
@@ -6085,7 +6461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>857</v>
       </c>
@@ -6102,7 +6478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>857</v>
       </c>
@@ -6119,7 +6495,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>857</v>
       </c>
@@ -6136,7 +6512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>857</v>
       </c>
@@ -6153,7 +6529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>857</v>
       </c>
@@ -6170,7 +6546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>857</v>
       </c>
@@ -6187,7 +6563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>857</v>
       </c>
@@ -6204,7 +6580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>857</v>
       </c>
@@ -6221,7 +6597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>857</v>
       </c>
@@ -6238,7 +6614,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>857</v>
       </c>
@@ -6255,7 +6631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>857</v>
       </c>
@@ -6272,7 +6648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>857</v>
       </c>
@@ -6289,7 +6665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>857</v>
       </c>
@@ -6306,7 +6682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>857</v>
       </c>
@@ -6323,7 +6699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>857</v>
       </c>
@@ -6340,7 +6716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>857</v>
       </c>
@@ -6357,7 +6733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>857</v>
       </c>
@@ -6374,7 +6750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>857</v>
       </c>
@@ -6391,7 +6767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>857</v>
       </c>
@@ -6408,7 +6784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>857</v>
       </c>
@@ -6425,7 +6801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>857</v>
       </c>
@@ -6442,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>857</v>
       </c>
@@ -6459,7 +6835,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>857</v>
       </c>
@@ -6476,7 +6852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>857</v>
       </c>
@@ -6493,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>857</v>
       </c>
@@ -6510,7 +6886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>857</v>
       </c>
@@ -6527,7 +6903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>857</v>
       </c>
@@ -6544,7 +6920,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>857</v>
       </c>
@@ -6561,7 +6937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>857</v>
       </c>
@@ -6578,7 +6954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>857</v>
       </c>
@@ -6595,7 +6971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>857</v>
       </c>
@@ -6612,7 +6988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>857</v>
       </c>
@@ -6629,7 +7005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>857</v>
       </c>
@@ -6646,7 +7022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>857</v>
       </c>
@@ -6663,7 +7039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>857</v>
       </c>
@@ -6680,7 +7056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>857</v>
       </c>
@@ -6697,7 +7073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>857</v>
       </c>
@@ -6714,7 +7090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>857</v>
       </c>
@@ -6731,7 +7107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>857</v>
       </c>
@@ -6748,7 +7124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>857</v>
       </c>
@@ -6765,7 +7141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>857</v>
       </c>
@@ -6782,7 +7158,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>857</v>
       </c>
@@ -6799,7 +7175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>857</v>
       </c>
@@ -6816,7 +7192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>857</v>
       </c>
@@ -6833,7 +7209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>857</v>
       </c>
@@ -6850,7 +7226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>857</v>
       </c>
@@ -6867,7 +7243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>857</v>
       </c>
@@ -6884,7 +7260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>857</v>
       </c>
@@ -6901,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>857</v>
       </c>
@@ -6918,7 +7294,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>857</v>
       </c>
@@ -6935,7 +7311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>857</v>
       </c>
@@ -6952,7 +7328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>857</v>
       </c>
@@ -6969,7 +7345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>857</v>
       </c>
@@ -6986,7 +7362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>857</v>
       </c>
@@ -7003,7 +7379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>857</v>
       </c>
@@ -7020,7 +7396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>857</v>
       </c>
@@ -7037,7 +7413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>857</v>
       </c>
@@ -7054,7 +7430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>857</v>
       </c>
@@ -7071,7 +7447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>857</v>
       </c>
@@ -7088,7 +7464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>857</v>
       </c>
@@ -7105,7 +7481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>857</v>
       </c>
@@ -7122,7 +7498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>857</v>
       </c>
@@ -7139,7 +7515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>857</v>
       </c>
@@ -7156,7 +7532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>857</v>
       </c>
@@ -7173,7 +7549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>857</v>
       </c>
@@ -7190,7 +7566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>857</v>
       </c>
@@ -7207,7 +7583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>857</v>
       </c>
@@ -7224,7 +7600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>857</v>
       </c>
@@ -7241,7 +7617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>857</v>
       </c>
@@ -7258,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>857</v>
       </c>
@@ -7275,7 +7651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>857</v>
       </c>
@@ -7292,7 +7668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>857</v>
       </c>
@@ -7309,7 +7685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>857</v>
       </c>
@@ -7326,7 +7702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>857</v>
       </c>
@@ -7343,7 +7719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>857</v>
       </c>
@@ -7360,7 +7736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>857</v>
       </c>
@@ -7377,7 +7753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>857</v>
       </c>
@@ -7394,7 +7770,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>857</v>
       </c>
@@ -7411,7 +7787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>857</v>
       </c>
@@ -7428,7 +7804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>857</v>
       </c>
@@ -7445,7 +7821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>857</v>
       </c>
@@ -7462,7 +7838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>857</v>
       </c>
@@ -7479,7 +7855,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>857</v>
       </c>
@@ -7496,7 +7872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>857</v>
       </c>
@@ -7513,7 +7889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>857</v>
       </c>
@@ -7530,7 +7906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>857</v>
       </c>
@@ -7547,7 +7923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>857</v>
       </c>
@@ -7564,7 +7940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>857</v>
       </c>
@@ -7581,7 +7957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>857</v>
       </c>
@@ -7598,7 +7974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>857</v>
       </c>
@@ -7615,7 +7991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>857</v>
       </c>
@@ -7632,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>857</v>
       </c>
@@ -7649,7 +8025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>857</v>
       </c>
@@ -7666,7 +8042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>857</v>
       </c>
@@ -7683,7 +8059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>857</v>
       </c>
@@ -7700,7 +8076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>857</v>
       </c>
@@ -7717,7 +8093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>857</v>
       </c>
@@ -7734,7 +8110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>857</v>
       </c>
@@ -7751,7 +8127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>857</v>
       </c>
@@ -7768,7 +8144,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>857</v>
       </c>
@@ -7785,7 +8161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>857</v>
       </c>
@@ -7802,7 +8178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>857</v>
       </c>
@@ -7819,7 +8195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>857</v>
       </c>
@@ -7836,7 +8212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>857</v>
       </c>
@@ -7853,7 +8229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>857</v>
       </c>
@@ -7870,7 +8246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>857</v>
       </c>
@@ -7887,7 +8263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>857</v>
       </c>
@@ -7904,7 +8280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>857</v>
       </c>
@@ -7921,7 +8297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>857</v>
       </c>
@@ -7938,7 +8314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>857</v>
       </c>
@@ -7955,7 +8331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>857</v>
       </c>
@@ -7972,7 +8348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>857</v>
       </c>
@@ -7989,7 +8365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>857</v>
       </c>
@@ -8006,7 +8382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>858</v>
       </c>
@@ -8023,7 +8399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>858</v>
       </c>
@@ -8040,7 +8416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>858</v>
       </c>
@@ -8057,7 +8433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>858</v>
       </c>
@@ -8074,7 +8450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>858</v>
       </c>
@@ -8091,7 +8467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>858</v>
       </c>
@@ -8108,7 +8484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>858</v>
       </c>
@@ -8125,7 +8501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>858</v>
       </c>
@@ -8142,7 +8518,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>858</v>
       </c>
@@ -8159,7 +8535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>858</v>
       </c>
@@ -8176,7 +8552,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>858</v>
       </c>
@@ -8193,7 +8569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>858</v>
       </c>
@@ -8210,7 +8586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>858</v>
       </c>
@@ -8227,7 +8603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>858</v>
       </c>
@@ -8244,7 +8620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>858</v>
       </c>
@@ -8261,7 +8637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>858</v>
       </c>
@@ -8278,7 +8654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>858</v>
       </c>
@@ -8295,7 +8671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>858</v>
       </c>
@@ -8312,7 +8688,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>858</v>
       </c>
@@ -8329,7 +8705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>858</v>
       </c>
@@ -8346,7 +8722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>858</v>
       </c>
@@ -8363,7 +8739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>858</v>
       </c>
@@ -8380,7 +8756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>858</v>
       </c>
@@ -8397,7 +8773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>858</v>
       </c>
@@ -8414,7 +8790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>858</v>
       </c>
@@ -8431,7 +8807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>858</v>
       </c>
@@ -8448,7 +8824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>858</v>
       </c>
@@ -8465,7 +8841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>858</v>
       </c>
@@ -8482,7 +8858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>858</v>
       </c>
@@ -8499,7 +8875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>858</v>
       </c>
@@ -8516,7 +8892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>858</v>
       </c>
@@ -8533,7 +8909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>858</v>
       </c>
@@ -8550,7 +8926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>858</v>
       </c>
@@ -8567,7 +8943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>858</v>
       </c>
@@ -8584,7 +8960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>858</v>
       </c>
@@ -8601,7 +8977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>858</v>
       </c>
@@ -8618,7 +8994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>858</v>
       </c>
@@ -8635,7 +9011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>858</v>
       </c>
@@ -8652,7 +9028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>858</v>
       </c>
@@ -8669,7 +9045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>858</v>
       </c>
@@ -8686,7 +9062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>858</v>
       </c>
@@ -8703,7 +9079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>858</v>
       </c>
@@ -8720,7 +9096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>858</v>
       </c>
@@ -8737,7 +9113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>859</v>
       </c>
@@ -8754,7 +9130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>859</v>
       </c>
@@ -8771,7 +9147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>859</v>
       </c>
@@ -8788,7 +9164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>859</v>
       </c>
@@ -8805,7 +9181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
         <v>859</v>
       </c>
@@ -8822,7 +9198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>859</v>
       </c>
@@ -8839,7 +9215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>859</v>
       </c>
@@ -8856,7 +9232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
         <v>859</v>
       </c>
@@ -8873,7 +9249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
         <v>859</v>
       </c>
@@ -8890,7 +9266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
         <v>859</v>
       </c>
@@ -8907,7 +9283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
         <v>859</v>
       </c>
@@ -8924,7 +9300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
         <v>859</v>
       </c>
@@ -8941,7 +9317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
         <v>859</v>
       </c>
@@ -8958,7 +9334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
         <v>859</v>
       </c>
@@ -8975,7 +9351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
         <v>859</v>
       </c>
@@ -8992,7 +9368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
         <v>859</v>
       </c>
@@ -9009,7 +9385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
         <v>859</v>
       </c>
@@ -9026,7 +9402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
         <v>859</v>
       </c>
@@ -9043,7 +9419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
         <v>859</v>
       </c>
@@ -9060,7 +9436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
         <v>859</v>
       </c>
@@ -9077,7 +9453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
         <v>859</v>
       </c>
@@ -9094,7 +9470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
         <v>859</v>
       </c>
@@ -9111,7 +9487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
         <v>859</v>
       </c>
@@ -9128,7 +9504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
         <v>859</v>
       </c>
@@ -9145,7 +9521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>859</v>
       </c>
@@ -9162,7 +9538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
         <v>859</v>
       </c>
@@ -9179,7 +9555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
         <v>859</v>
       </c>
@@ -9196,7 +9572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
         <v>859</v>
       </c>
@@ -9213,7 +9589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
         <v>859</v>
       </c>
@@ -9230,7 +9606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
         <v>859</v>
       </c>
@@ -9247,7 +9623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
         <v>859</v>
       </c>
@@ -9264,7 +9640,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
         <v>859</v>
       </c>
@@ -9281,7 +9657,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
         <v>859</v>
       </c>
@@ -9298,7 +9674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
         <v>859</v>
       </c>
@@ -9315,7 +9691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
         <v>859</v>
       </c>
@@ -9332,7 +9708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
         <v>859</v>
       </c>
@@ -9349,7 +9725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
         <v>859</v>
       </c>
@@ -9366,7 +9742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
         <v>859</v>
       </c>
@@ -9383,7 +9759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
         <v>859</v>
       </c>
@@ -9400,7 +9776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
         <v>859</v>
       </c>
@@ -9417,7 +9793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
         <v>859</v>
       </c>
@@ -9434,7 +9810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
         <v>859</v>
       </c>
@@ -9451,7 +9827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
         <v>859</v>
       </c>
@@ -9468,7 +9844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
         <v>859</v>
       </c>
@@ -9485,7 +9861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
         <v>859</v>
       </c>
@@ -9502,7 +9878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
         <v>859</v>
       </c>
@@ -9519,7 +9895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
         <v>859</v>
       </c>
@@ -9536,7 +9912,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
         <v>859</v>
       </c>
@@ -9553,7 +9929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
         <v>859</v>
       </c>
@@ -9570,7 +9946,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
         <v>859</v>
       </c>
@@ -9587,7 +9963,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
         <v>859</v>
       </c>
@@ -9604,7 +9980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
         <v>859</v>
       </c>
@@ -9621,7 +9997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
         <v>859</v>
       </c>
@@ -9638,7 +10014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
         <v>859</v>
       </c>
@@ -9655,7 +10031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C240" t="s">
         <v>859</v>
       </c>
@@ -9672,7 +10048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C241" t="s">
         <v>859</v>
       </c>
@@ -9689,7 +10065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C242" t="s">
         <v>859</v>
       </c>
@@ -9706,7 +10082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C243" t="s">
         <v>859</v>
       </c>
@@ -9723,7 +10099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C244" t="s">
         <v>859</v>
       </c>
@@ -9740,7 +10116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C245" t="s">
         <v>859</v>
       </c>
@@ -9757,7 +10133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C246" t="s">
         <v>859</v>
       </c>
@@ -9774,7 +10150,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C247" t="s">
         <v>859</v>
       </c>
@@ -9791,7 +10167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C248" t="s">
         <v>859</v>
       </c>
@@ -9808,7 +10184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C249" t="s">
         <v>859</v>
       </c>
@@ -9825,7 +10201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C250" t="s">
         <v>859</v>
       </c>
@@ -9842,7 +10218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C251" t="s">
         <v>859</v>
       </c>
@@ -9859,7 +10235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C252" t="s">
         <v>859</v>
       </c>
@@ -9876,7 +10252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C253" t="s">
         <v>859</v>
       </c>
@@ -9893,7 +10269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C254" t="s">
         <v>859</v>
       </c>
@@ -9910,7 +10286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C255" t="s">
         <v>859</v>
       </c>
@@ -9927,7 +10303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C256" t="s">
         <v>859</v>
       </c>
@@ -9944,7 +10320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C257" t="s">
         <v>859</v>
       </c>
@@ -9961,7 +10337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C258" t="s">
         <v>859</v>
       </c>
@@ -9978,7 +10354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C259" t="s">
         <v>859</v>
       </c>
@@ -9995,7 +10371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C260" t="s">
         <v>859</v>
       </c>
@@ -10012,7 +10388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C261" t="s">
         <v>859</v>
       </c>
@@ -10029,7 +10405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
         <v>859</v>
       </c>
@@ -10046,7 +10422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C263" t="s">
         <v>859</v>
       </c>
@@ -10063,7 +10439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C264" t="s">
         <v>859</v>
       </c>
@@ -10080,7 +10456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C265" t="s">
         <v>859</v>
       </c>
@@ -10097,7 +10473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C266" t="s">
         <v>859</v>
       </c>
@@ -10114,7 +10490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C267" t="s">
         <v>859</v>
       </c>
@@ -10131,7 +10507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C268" t="s">
         <v>859</v>
       </c>
@@ -10148,7 +10524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C269" t="s">
         <v>859</v>
       </c>
@@ -10165,7 +10541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C270" t="s">
         <v>859</v>
       </c>
@@ -10182,7 +10558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C271" t="s">
         <v>859</v>
       </c>
@@ -10199,7 +10575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C272" t="s">
         <v>859</v>
       </c>
@@ -10216,7 +10592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C273" t="s">
         <v>859</v>
       </c>
@@ -10233,7 +10609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C274" t="s">
         <v>859</v>
       </c>
@@ -10250,7 +10626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C275" t="s">
         <v>859</v>
       </c>
@@ -10267,7 +10643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C276" t="s">
         <v>859</v>
       </c>
@@ -10284,7 +10660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C277" t="s">
         <v>859</v>
       </c>
@@ -10301,7 +10677,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C278" t="s">
         <v>859</v>
       </c>
@@ -10318,7 +10694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C279" t="s">
         <v>859</v>
       </c>
@@ -10335,7 +10711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C280" t="s">
         <v>859</v>
       </c>
@@ -10352,7 +10728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C281" t="s">
         <v>859</v>
       </c>
@@ -10369,7 +10745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C282" t="s">
         <v>859</v>
       </c>
@@ -10386,7 +10762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C283" t="s">
         <v>859</v>
       </c>
@@ -10403,7 +10779,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C284" t="s">
         <v>859</v>
       </c>
@@ -10420,7 +10796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
         <v>859</v>
       </c>
@@ -10437,7 +10813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C286" t="s">
         <v>859</v>
       </c>
@@ -10454,7 +10830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C287" t="s">
         <v>859</v>
       </c>
@@ -10471,7 +10847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C288" t="s">
         <v>859</v>
       </c>
@@ -10488,7 +10864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C289" t="s">
         <v>859</v>
       </c>
@@ -10505,7 +10881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C290" t="s">
         <v>859</v>
       </c>
@@ -10522,7 +10898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C291" t="s">
         <v>859</v>
       </c>
@@ -10539,7 +10915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C292" t="s">
         <v>859</v>
       </c>
@@ -10556,7 +10932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C293" t="s">
         <v>859</v>
       </c>
@@ -10573,7 +10949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C294" t="s">
         <v>859</v>
       </c>
@@ -10590,7 +10966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C295" t="s">
         <v>859</v>
       </c>
@@ -10607,7 +10983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C296" t="s">
         <v>859</v>
       </c>
@@ -10624,7 +11000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C297" t="s">
         <v>859</v>
       </c>
@@ -10641,7 +11017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C298" t="s">
         <v>859</v>
       </c>
@@ -10658,7 +11034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C299" t="s">
         <v>859</v>
       </c>
@@ -10675,7 +11051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C300" t="s">
         <v>859</v>
       </c>
@@ -10692,7 +11068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
         <v>859</v>
       </c>
@@ -10709,7 +11085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C302" t="s">
         <v>859</v>
       </c>
@@ -10726,7 +11102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
         <v>859</v>
       </c>
@@ -10743,7 +11119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C304" t="s">
         <v>859</v>
       </c>
@@ -10780,26 +11156,1579 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0AB14C-0853-4E69-8564-142A73E514B8}">
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A2,'A1'!$D:$G,4,FALSE)</f>
+        <v>Malgaon, Bhadgaon</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D3" t="s">
+        <v>915</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(A3,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A3,'A1'!$D:$G,4,FALSE)</f>
+        <v>Patharad Bu., Dharangaon</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C4" t="s">
+        <v>916</v>
+      </c>
+      <c r="D4" t="s">
+        <v>913</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(A4,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A4,'A1'!$D:$G,4,FALSE)</f>
+        <v>Vadji, Bhadgaon</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D5" t="s">
+        <v>913</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(A5,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A5,'A1'!$D:$G,4,FALSE)</f>
+        <v>Khapat, Dharangaon</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C6" t="s">
+        <v>914</v>
+      </c>
+      <c r="D6" t="s">
+        <v>913</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A6,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pahur, Jamner</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D7" t="s">
+        <v>918</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(A7,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A7,'A1'!$D:$G,4,FALSE)</f>
+        <v>Karanj, Jalgaon</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" t="s">
+        <v>913</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(A8,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A8,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pimpalgaon Khu., Jamner</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C9" t="s">
+        <v>920</v>
+      </c>
+      <c r="D9" t="s">
+        <v>913</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(A9,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A9,'A1'!$D:$G,4,FALSE)</f>
+        <v>Gadhode, Jalgaon</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C10" t="s">
+        <v>912</v>
+      </c>
+      <c r="D10" t="s">
+        <v>913</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(A10,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A10,'A1'!$D:$G,4,FALSE)</f>
+        <v>Gartaad, Chopda</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>809</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C11" t="s">
+        <v>921</v>
+      </c>
+      <c r="D11" t="s">
+        <v>918</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(A11,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A11,'A1'!$D:$G,4,FALSE)</f>
+        <v>Borkheda, Chopda</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>922</v>
+      </c>
+      <c r="D12" t="s">
+        <v>923</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(A12,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A12,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pimpalgaon Khu. Pra.Bha, Pachora</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C13" t="s">
+        <v>924</v>
+      </c>
+      <c r="D13" t="s">
+        <v>923</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(A13,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A13,'A1'!$D:$G,4,FALSE)</f>
+        <v>Tarsod, Jalgaon</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D14" t="s">
+        <v>913</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(A14,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A14,'A1'!$D:$G,4,FALSE)</f>
+        <v>Mundane Pra.Uu, Parola</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>626</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C15" t="s">
+        <v>916</v>
+      </c>
+      <c r="D15" t="s">
+        <v>918</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(A15,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A15,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shirsamani, Parola</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C16" t="s">
+        <v>926</v>
+      </c>
+      <c r="D16" t="s">
+        <v>915</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(A16,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A16,'A1'!$D:$G,4,FALSE)</f>
+        <v>Anjanvihere, Bhadgaon</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C17" t="s">
+        <v>927</v>
+      </c>
+      <c r="D17" t="s">
+        <v>913</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(A17,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A17,'A1'!$D:$G,4,FALSE)</f>
+        <v>Khedgaon Nandi, Pachora</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>721</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C18" t="s">
+        <v>922</v>
+      </c>
+      <c r="D18" t="s">
+        <v>918</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP(A18,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A18,'A1'!$D:$G,4,FALSE)</f>
+        <v>Ghumawal Bu, Chopda</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>637</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C19" t="s">
+        <v>927</v>
+      </c>
+      <c r="D19" t="s">
+        <v>913</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(A19,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A19,'A1'!$D:$G,4,FALSE)</f>
+        <v>Malpimpri, Jamner</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>707</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C20" t="s">
+        <v>921</v>
+      </c>
+      <c r="D20" t="s">
+        <v>928</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(A20,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A20,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shirsoli (Farm in Dapore-Erandol), Jalgaon</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C21" t="s">
+        <v>919</v>
+      </c>
+      <c r="D21" t="s">
+        <v>918</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP(A21,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A21,'A1'!$D:$G,4,FALSE)</f>
+        <v>Kothali, Bhadgaon</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>737</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="C22" t="s">
+        <v>929</v>
+      </c>
+      <c r="D22" t="s">
+        <v>923</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(A22,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A22,'A1'!$D:$G,4,FALSE)</f>
+        <v>Hanamantkhede, Erandol</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>573</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="C23" t="s">
+        <v>921</v>
+      </c>
+      <c r="D23" t="s">
+        <v>913</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(A23,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A23,'A1'!$D:$G,4,FALSE)</f>
+        <v>Rameshwar, Pachora</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>573</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C24" t="s">
+        <v>919</v>
+      </c>
+      <c r="D24" t="s">
+        <v>923</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(A24,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A24,'A1'!$D:$G,4,FALSE)</f>
+        <v>Rameshwar, Pachora</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C25" t="s">
+        <v>916</v>
+      </c>
+      <c r="D25" t="s">
+        <v>918</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP(A25,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A25,'A1'!$D:$G,4,FALSE)</f>
+        <v>Malda-bhadi, Jamner</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C26" t="s">
+        <v>896</v>
+      </c>
+      <c r="D26" t="s">
+        <v>913</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP(A26,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A26,'A1'!$D:$G,4,FALSE)</f>
+        <v>Lihe-Digar, Jamner</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C27" t="s">
+        <v>912</v>
+      </c>
+      <c r="D27" t="s">
+        <v>913</v>
+      </c>
+      <c r="E27" t="str">
+        <f>VLOOKUP(A27,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A27,'A1'!$D:$G,4,FALSE)</f>
+        <v>Lihe-Digar, Jamner</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="C28" t="s">
+        <v>930</v>
+      </c>
+      <c r="D28" t="s">
+        <v>913</v>
+      </c>
+      <c r="E28" t="str">
+        <f>VLOOKUP(A28,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A28,'A1'!$D:$G,4,FALSE)</f>
+        <v>Laundhari Khu, Jamner</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>851</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C29" t="s">
+        <v>921</v>
+      </c>
+      <c r="D29" t="s">
+        <v>918</v>
+      </c>
+      <c r="E29" t="str">
+        <f>VLOOKUP(A29,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A29,'A1'!$D:$G,4,FALSE)</f>
+        <v>Mondhala, Pachora</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C30" t="s">
+        <v>927</v>
+      </c>
+      <c r="D30" t="s">
+        <v>928</v>
+      </c>
+      <c r="E30" t="str">
+        <f>VLOOKUP(A30,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A30,'A1'!$D:$G,4,FALSE)</f>
+        <v>Moharad, Chopda</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C31" t="s">
+        <v>916</v>
+      </c>
+      <c r="D31" t="s">
+        <v>918</v>
+      </c>
+      <c r="E31" t="str">
+        <f>VLOOKUP(A31,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A31,'A1'!$D:$G,4,FALSE)</f>
+        <v>Moharad, Chopda</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>801</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C32" t="s">
+        <v>916</v>
+      </c>
+      <c r="D32" t="s">
+        <v>913</v>
+      </c>
+      <c r="E32" t="str">
+        <f>VLOOKUP(A32,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A32,'A1'!$D:$G,4,FALSE)</f>
+        <v>Bahute, Parola</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C33" t="s">
+        <v>912</v>
+      </c>
+      <c r="D33" t="s">
+        <v>918</v>
+      </c>
+      <c r="E33" t="str">
+        <f>VLOOKUP(A33,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A33,'A1'!$D:$G,4,FALSE)</f>
+        <v>Toli Khu., Erandol</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C34" t="s">
+        <v>931</v>
+      </c>
+      <c r="D34" t="s">
+        <v>913</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP(A34,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A34,'A1'!$D:$G,4,FALSE)</f>
+        <v>Tarde Khu, Dharangaon</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>854</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="C35" t="s">
+        <v>927</v>
+      </c>
+      <c r="D35" t="s">
+        <v>913</v>
+      </c>
+      <c r="E35" t="str">
+        <f>VLOOKUP(A35,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A35,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shelvad, Bodwad</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>610</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C36" t="s">
+        <v>932</v>
+      </c>
+      <c r="D36" t="s">
+        <v>913</v>
+      </c>
+      <c r="E36" t="str">
+        <f>VLOOKUP(A36,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A36,'A1'!$D:$G,4,FALSE)</f>
+        <v>Takali  Bu., Jamner</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C37" t="s">
+        <v>912</v>
+      </c>
+      <c r="D37" t="s">
+        <v>918</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP(A37,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A37,'A1'!$D:$G,4,FALSE)</f>
+        <v>Tornale, Jamner</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>833</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C38" t="s">
+        <v>916</v>
+      </c>
+      <c r="D38" t="s">
+        <v>913</v>
+      </c>
+      <c r="E38" t="str">
+        <f>VLOOKUP(A38,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A38,'A1'!$D:$G,4,FALSE)</f>
+        <v>Nimkhedi Khu., Muktainagar</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C39" t="s">
+        <v>921</v>
+      </c>
+      <c r="D39" t="s">
+        <v>923</v>
+      </c>
+      <c r="E39" t="str">
+        <f>VLOOKUP(A39,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A39,'A1'!$D:$G,4,FALSE)</f>
+        <v>Engaon, Bodwad</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>596</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C40" t="s">
+        <v>922</v>
+      </c>
+      <c r="D40" t="s">
+        <v>913</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP(A40,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A40,'A1'!$D:$G,4,FALSE)</f>
+        <v>Nimkhedi Bu., Muktainagar</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>822</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C41" t="s">
+        <v>881</v>
+      </c>
+      <c r="D41" t="s">
+        <v>913</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP(A41,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A41,'A1'!$D:$G,4,FALSE)</f>
+        <v>Tahakali, Bhusawal</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>791</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C42" t="s">
+        <v>917</v>
+      </c>
+      <c r="D42" t="s">
+        <v>918</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP(A42,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A42,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dongar Kathora, Yawal</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C43" t="s">
+        <v>931</v>
+      </c>
+      <c r="D43" t="s">
+        <v>923</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP(A43,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A43,'A1'!$D:$G,4,FALSE)</f>
+        <v>Nimkhedi Khu., Muktainagar</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C44" t="s">
+        <v>930</v>
+      </c>
+      <c r="D44" t="s">
+        <v>918</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP(A44,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A44,'A1'!$D:$G,4,FALSE)</f>
+        <v>Hartale, Muktainagar</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>555</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="C45" t="s">
+        <v>931</v>
+      </c>
+      <c r="D45" t="s">
+        <v>918</v>
+      </c>
+      <c r="E45" t="str">
+        <f>VLOOKUP(A45,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A45,'A1'!$D:$G,4,FALSE)</f>
+        <v>Sarola, Muktainagar</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C46" t="s">
+        <v>933</v>
+      </c>
+      <c r="D46" t="s">
+        <v>918</v>
+      </c>
+      <c r="E46" t="str">
+        <f>VLOOKUP(A46,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A46,'A1'!$D:$G,4,FALSE)</f>
+        <v>Kalamsara, Pachora</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C47" t="s">
+        <v>930</v>
+      </c>
+      <c r="D47" t="s">
+        <v>918</v>
+      </c>
+      <c r="E47" t="str">
+        <f>VLOOKUP(A47,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A47,'A1'!$D:$G,4,FALSE)</f>
+        <v>Kalyane ku, Dharangaon</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>831</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C48" t="s">
+        <v>922</v>
+      </c>
+      <c r="D48" t="s">
+        <v>918</v>
+      </c>
+      <c r="E48" t="str">
+        <f>VLOOKUP(A48,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A48,'A1'!$D:$G,4,FALSE)</f>
+        <v>Chamgaon, Dharangaon</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>425</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C49" t="s">
+        <v>922</v>
+      </c>
+      <c r="D49" t="s">
+        <v>923</v>
+      </c>
+      <c r="E49" t="str">
+        <f>VLOOKUP(A49,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A49,'A1'!$D:$G,4,FALSE)</f>
+        <v>Anora, Dharangaon</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C50" t="s">
+        <v>921</v>
+      </c>
+      <c r="D50" t="s">
+        <v>913</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP(A50,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A50,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shedurani, Jamner</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C51" t="s">
+        <v>912</v>
+      </c>
+      <c r="D51" t="s">
+        <v>913</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP(A51,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A51,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shedurani, Jamner</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C52" t="s">
+        <v>927</v>
+      </c>
+      <c r="D52" t="s">
+        <v>923</v>
+      </c>
+      <c r="E52" t="str">
+        <f>VLOOKUP(A52,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A52,'A1'!$D:$G,4,FALSE)</f>
+        <v>Gondkhed, Jamner</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>546</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C53" t="s">
+        <v>922</v>
+      </c>
+      <c r="D53" t="s">
+        <v>918</v>
+      </c>
+      <c r="E53" t="str">
+        <f>VLOOKUP(A53,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A53,'A1'!$D:$G,4,FALSE)</f>
+        <v>Sargaon, Jamner</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>692</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C54" t="s">
+        <v>934</v>
+      </c>
+      <c r="D54" t="s">
+        <v>913</v>
+      </c>
+      <c r="E54" t="str">
+        <f>VLOOKUP(A54,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A54,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pra Dagri, Amalner</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>692</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C55" t="s">
+        <v>935</v>
+      </c>
+      <c r="D55" t="s">
+        <v>913</v>
+      </c>
+      <c r="E55" t="str">
+        <f>VLOOKUP(A55,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A55,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pra Dagri, Amalner</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>337</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C56" t="s">
+        <v>862</v>
+      </c>
+      <c r="D56" t="s">
+        <v>923</v>
+      </c>
+      <c r="E56" t="str">
+        <f>VLOOKUP(A56,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A56,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dhanwad, Jalgaon</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C57" t="s">
+        <v>912</v>
+      </c>
+      <c r="D57" t="s">
+        <v>918</v>
+      </c>
+      <c r="E57" t="str">
+        <f>VLOOKUP(A57,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A57,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dharangaon, Dharangaon</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C58" t="s">
+        <v>936</v>
+      </c>
+      <c r="D58" t="s">
+        <v>913</v>
+      </c>
+      <c r="E58" t="str">
+        <f>VLOOKUP(A58,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A58,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dahiwad, Amalner</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C59" t="s">
+        <v>917</v>
+      </c>
+      <c r="D59" t="s">
+        <v>913</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP(A59,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A59,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dahiwad, Amalner</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>689</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C60" t="s">
+        <v>916</v>
+      </c>
+      <c r="D60" t="s">
+        <v>913</v>
+      </c>
+      <c r="E60" t="str">
+        <f>VLOOKUP(A60,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A60,'A1'!$D:$G,4,FALSE)</f>
+        <v>Javkheda, Amalner</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>571</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>937</v>
+      </c>
+      <c r="D61" t="s">
+        <v>923</v>
+      </c>
+      <c r="E61" t="str">
+        <f>VLOOKUP(A61,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A61,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dhanwad, Jalgaon</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>914</v>
+      </c>
+      <c r="D62" t="s">
+        <v>923</v>
+      </c>
+      <c r="E62" t="str">
+        <f>VLOOKUP(A62,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A62,'A1'!$D:$G,4,FALSE)</f>
+        <v>Tamaswadi, Parola</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>499</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>934</v>
+      </c>
+      <c r="D63" t="s">
+        <v>918</v>
+      </c>
+      <c r="E63" t="str">
+        <f>VLOOKUP(A63,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A63,'A1'!$D:$G,4,FALSE)</f>
+        <v>Savkhede Hol, Parola</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>917</v>
+      </c>
+      <c r="D64" t="s">
+        <v>913</v>
+      </c>
+      <c r="E64" t="str">
+        <f>VLOOKUP(A64,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A64,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shedurani, Jamner</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>917</v>
+      </c>
+      <c r="D65" t="s">
+        <v>913</v>
+      </c>
+      <c r="E65" t="str">
+        <f>VLOOKUP(A65,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A65,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shedurani, Jamner</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C66" t="s">
+        <v>931</v>
+      </c>
+      <c r="D66" t="s">
+        <v>923</v>
+      </c>
+      <c r="E66" t="str">
+        <f>VLOOKUP(A66,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A66,'A1'!$D:$G,4,FALSE)</f>
+        <v>Ganpur, Chopda</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>824</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C67" t="s">
+        <v>914</v>
+      </c>
+      <c r="D67" t="s">
+        <v>913</v>
+      </c>
+      <c r="E67" t="str">
+        <f>VLOOKUP(A67,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A67,'A1'!$D:$G,4,FALSE)</f>
+        <v>Chinchgavhan, Chalisgaon</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>730</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C68" t="s">
+        <v>921</v>
+      </c>
+      <c r="D68" t="s">
+        <v>913</v>
+      </c>
+      <c r="E68" t="str">
+        <f>VLOOKUP(A68,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A68,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pimpri Bu, Erandol</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>730</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C69" t="s">
+        <v>863</v>
+      </c>
+      <c r="D69" t="s">
+        <v>913</v>
+      </c>
+      <c r="E69" t="str">
+        <f>VLOOKUP(A69,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A69,'A1'!$D:$G,4,FALSE)</f>
+        <v>Pimpri Bu, Erandol</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C70" t="s">
+        <v>920</v>
+      </c>
+      <c r="D70" t="s">
+        <v>913</v>
+      </c>
+      <c r="E70" t="str">
+        <f>VLOOKUP(A70,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A70,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dhamangaon, Chalisgaon</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>672</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C71" t="s">
+        <v>917</v>
+      </c>
+      <c r="D71" t="s">
+        <v>915</v>
+      </c>
+      <c r="E71" t="str">
+        <f>VLOOKUP(A71,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A71,'A1'!$D:$G,4,FALSE)</f>
+        <v>Chaturbhuj, Chalisgaon</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>623</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C72" t="s">
+        <v>933</v>
+      </c>
+      <c r="D72" t="s">
+        <v>918</v>
+      </c>
+      <c r="E72" t="str">
+        <f>VLOOKUP(A72,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A72,'A1'!$D:$G,4,FALSE)</f>
+        <v>Rajwad, Parola</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>623</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C73" t="s">
+        <v>895</v>
+      </c>
+      <c r="D73" t="s">
+        <v>918</v>
+      </c>
+      <c r="E73" t="str">
+        <f>VLOOKUP(A73,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A73,'A1'!$D:$G,4,FALSE)</f>
+        <v>Rajwad, Parola</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>777</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C74" t="s">
+        <v>934</v>
+      </c>
+      <c r="D74" t="s">
+        <v>913</v>
+      </c>
+      <c r="E74" t="str">
+        <f>VLOOKUP(A74,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A74,'A1'!$D:$G,4,FALSE)</f>
+        <v>Karmad, Parola</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C75" t="s">
+        <v>927</v>
+      </c>
+      <c r="D75" t="s">
+        <v>913</v>
+      </c>
+      <c r="E75" t="str">
+        <f>VLOOKUP(A75,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A75,'A1'!$D:$G,4,FALSE)</f>
+        <v>Bharudkheda, Jamner</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C76" t="s">
+        <v>919</v>
+      </c>
+      <c r="D76" t="s">
+        <v>913</v>
+      </c>
+      <c r="E76" t="str">
+        <f>VLOOKUP(A76,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A76,'A1'!$D:$G,4,FALSE)</f>
+        <v>Bharudkheda, Jamner</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C77" t="s">
+        <v>930</v>
+      </c>
+      <c r="D77" t="s">
+        <v>918</v>
+      </c>
+      <c r="E77" t="str">
+        <f>VLOOKUP(A77,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A77,'A1'!$D:$G,4,FALSE)</f>
+        <v>Bhondan, Parola</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>765</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C78" t="s">
+        <v>931</v>
+      </c>
+      <c r="D78" t="s">
+        <v>915</v>
+      </c>
+      <c r="E78" t="str">
+        <f>VLOOKUP(A78,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A78,'A1'!$D:$G,4,FALSE)</f>
+        <v>Borgaon, Jamner</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>776</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C79" t="s">
+        <v>938</v>
+      </c>
+      <c r="D79" t="s">
+        <v>913</v>
+      </c>
+      <c r="E79" t="str">
+        <f>VLOOKUP(A79,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A79,'A1'!$D:$G,4,FALSE)</f>
+        <v>Karmad Khu, Parola</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>799</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C80" t="s">
+        <v>922</v>
+      </c>
+      <c r="D80" t="s">
+        <v>923</v>
+      </c>
+      <c r="E80" t="str">
+        <f>VLOOKUP(A80,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A80,'A1'!$D:$G,4,FALSE)</f>
+        <v>Dholi, Parola</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C81" t="s">
+        <v>921</v>
+      </c>
+      <c r="D81" t="s">
+        <v>913</v>
+      </c>
+      <c r="E81" t="str">
+        <f>VLOOKUP(A81,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A81,'A1'!$D:$G,4,FALSE)</f>
+        <v>Talkhede, Muktainagar</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C82" t="s">
+        <v>912</v>
+      </c>
+      <c r="D82" t="s">
+        <v>918</v>
+      </c>
+      <c r="E82" t="str">
+        <f>VLOOKUP(A82,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A82,'A1'!$D:$G,4,FALSE)</f>
+        <v>Talkhede, Muktainagar</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C83" t="s">
+        <v>932</v>
+      </c>
+      <c r="D83" t="s">
+        <v>928</v>
+      </c>
+      <c r="E83" t="str">
+        <f>VLOOKUP(A83,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A83,'A1'!$D:$G,4,FALSE)</f>
+        <v>Talkhede, Muktainagar</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>477</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C84" t="s">
+        <v>934</v>
+      </c>
+      <c r="D84" t="s">
+        <v>913</v>
+      </c>
+      <c r="E84" t="str">
+        <f>VLOOKUP(A84,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A84,'A1'!$D:$G,4,FALSE)</f>
+        <v>Shirasgaon, Chalisgaon</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>465</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C85" t="s">
+        <v>895</v>
+      </c>
+      <c r="D85" t="s">
+        <v>928</v>
+      </c>
+      <c r="E85" t="str">
+        <f>VLOOKUP(A85,'A1'!$D:$G,3,FALSE)&amp;", "&amp;VLOOKUP(A85,'A1'!$D:$G,4,FALSE)</f>
+        <v>Saigaon, Chalisgaon</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.25" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B409A926-9F0D-4650-8AE9-FD25E28E15DA}">
   <dimension ref="B2:N305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>860</v>
       </c>
@@ -10822,7 +12751,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -10854,7 +12783,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10873,7 +12802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10892,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -10920,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -10948,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -10976,7 +12905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -10997,7 +12926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -11016,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -11035,7 +12964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -11063,7 +12992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -11082,7 +13011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -11101,7 +13030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -11129,7 +13058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -11148,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -11176,7 +13105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -11197,7 +13126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -11216,7 +13145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -11235,7 +13164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -11258,7 +13187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -11286,7 +13215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -11316,7 +13245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -11348,7 +13277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>24</v>
       </c>
@@ -11371,7 +13300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>25</v>
       </c>
@@ -11401,7 +13330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>26</v>
       </c>
@@ -11431,7 +13360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>27</v>
       </c>
@@ -11454,7 +13383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>28</v>
       </c>
@@ -11482,7 +13411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>29</v>
       </c>
@@ -11512,7 +13441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>30</v>
       </c>
@@ -11535,7 +13464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>31</v>
       </c>
@@ -11558,7 +13487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>32</v>
       </c>
@@ -11586,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>33</v>
       </c>
@@ -11616,7 +13545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>34</v>
       </c>
@@ -11646,7 +13575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>35</v>
       </c>
@@ -11665,7 +13594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>36</v>
       </c>
@@ -11684,7 +13613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>37</v>
       </c>
@@ -11712,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>38</v>
       </c>
@@ -11731,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>39</v>
       </c>
@@ -11746,7 +13675,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>40</v>
       </c>
@@ -11769,7 +13698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>41</v>
       </c>
@@ -11777,7 +13706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>42</v>
       </c>
@@ -11794,7 +13723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>43</v>
       </c>
@@ -11811,7 +13740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>44</v>
       </c>
@@ -11828,7 +13757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>45</v>
       </c>
@@ -11845,7 +13774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>46</v>
       </c>
@@ -11862,7 +13791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>47</v>
       </c>
@@ -11870,7 +13799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>48</v>
       </c>
@@ -11878,7 +13807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>49</v>
       </c>
@@ -11886,7 +13815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>50</v>
       </c>
@@ -11903,7 +13832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>51</v>
       </c>
@@ -11911,7 +13840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>52</v>
       </c>
@@ -11928,7 +13857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>53</v>
       </c>
@@ -11945,7 +13874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>54</v>
       </c>
@@ -11962,7 +13891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>55</v>
       </c>
@@ -11979,7 +13908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>56</v>
       </c>
@@ -11996,7 +13925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>57</v>
       </c>
@@ -12013,7 +13942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>58</v>
       </c>
@@ -12030,7 +13959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>59</v>
       </c>
@@ -12038,7 +13967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>60</v>
       </c>
@@ -12055,7 +13984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>61</v>
       </c>
@@ -12063,7 +13992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>62</v>
       </c>
@@ -12080,7 +14009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>63</v>
       </c>
@@ -12097,7 +14026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>64</v>
       </c>
@@ -12114,7 +14043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>65</v>
       </c>
@@ -12131,7 +14060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>66</v>
       </c>
@@ -12148,7 +14077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>67</v>
       </c>
@@ -12165,7 +14094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>68</v>
       </c>
@@ -12182,7 +14111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>69</v>
       </c>
@@ -12190,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>70</v>
       </c>
@@ -12198,7 +14127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>71</v>
       </c>
@@ -12215,7 +14144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>72</v>
       </c>
@@ -12232,7 +14161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>73</v>
       </c>
@@ -12249,7 +14178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>74</v>
       </c>
@@ -12266,7 +14195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>75</v>
       </c>
@@ -12283,7 +14212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>76</v>
       </c>
@@ -12300,7 +14229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>77</v>
       </c>
@@ -12308,7 +14237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>78</v>
       </c>
@@ -12325,7 +14254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>79</v>
       </c>
@@ -12342,7 +14271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>80</v>
       </c>
@@ -12359,7 +14288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>81</v>
       </c>
@@ -12376,7 +14305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>82</v>
       </c>
@@ -12393,7 +14322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>83</v>
       </c>
@@ -12410,7 +14339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>84</v>
       </c>
@@ -12427,7 +14356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>85</v>
       </c>
@@ -12435,7 +14364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>86</v>
       </c>
@@ -12443,7 +14372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>87</v>
       </c>
@@ -12460,7 +14389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>88</v>
       </c>
@@ -12477,7 +14406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>89</v>
       </c>
@@ -12485,7 +14414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>90</v>
       </c>
@@ -12493,7 +14422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>91</v>
       </c>
@@ -12510,7 +14439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>92</v>
       </c>
@@ -12518,7 +14447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>93</v>
       </c>
@@ -12535,7 +14464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>94</v>
       </c>
@@ -12552,7 +14481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>95</v>
       </c>
@@ -12560,7 +14489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>96</v>
       </c>
@@ -12577,7 +14506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>97</v>
       </c>
@@ -12594,7 +14523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>98</v>
       </c>
@@ -12611,7 +14540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>99</v>
       </c>
@@ -12628,7 +14557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>100</v>
       </c>
@@ -12636,7 +14565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>101</v>
       </c>
@@ -12653,7 +14582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>102</v>
       </c>
@@ -12670,7 +14599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>103</v>
       </c>
@@ -12687,7 +14616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>104</v>
       </c>
@@ -12704,7 +14633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>105</v>
       </c>
@@ -12712,7 +14641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>106</v>
       </c>
@@ -12729,7 +14658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>108</v>
       </c>
@@ -12746,7 +14675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>109</v>
       </c>
@@ -12754,7 +14683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>110</v>
       </c>
@@ -12771,7 +14700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>111</v>
       </c>
@@ -12779,7 +14708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>112</v>
       </c>
@@ -12796,7 +14725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>113</v>
       </c>
@@ -12813,7 +14742,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>114</v>
       </c>
@@ -12830,7 +14759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>115</v>
       </c>
@@ -12838,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>116</v>
       </c>
@@ -12855,7 +14784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>117</v>
       </c>
@@ -12872,7 +14801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>118</v>
       </c>
@@ -12889,7 +14818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>119</v>
       </c>
@@ -12897,7 +14826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>120</v>
       </c>
@@ -12905,7 +14834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>121</v>
       </c>
@@ -12913,7 +14842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>122</v>
       </c>
@@ -12930,7 +14859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>123</v>
       </c>
@@ -12947,7 +14876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>124</v>
       </c>
@@ -12964,7 +14893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>125</v>
       </c>
@@ -12981,7 +14910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>126</v>
       </c>
@@ -12998,7 +14927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>127</v>
       </c>
@@ -13006,7 +14935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>128</v>
       </c>
@@ -13014,7 +14943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>129</v>
       </c>
@@ -13031,7 +14960,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>130</v>
       </c>
@@ -13048,7 +14977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>131</v>
       </c>
@@ -13065,7 +14994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>132</v>
       </c>
@@ -13073,7 +15002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>133</v>
       </c>
@@ -13090,7 +15019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>134</v>
       </c>
@@ -13107,7 +15036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>135</v>
       </c>
@@ -13124,7 +15053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>136</v>
       </c>
@@ -13141,7 +15070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>137</v>
       </c>
@@ -13149,7 +15078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>138</v>
       </c>
@@ -13157,7 +15086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>139</v>
       </c>
@@ -13174,7 +15103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>140</v>
       </c>
@@ -13191,7 +15120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>141</v>
       </c>
@@ -13208,7 +15137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>142</v>
       </c>
@@ -13216,7 +15145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>143</v>
       </c>
@@ -13224,7 +15153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>144</v>
       </c>
@@ -13241,7 +15170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>145</v>
       </c>
@@ -13249,7 +15178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>146</v>
       </c>
@@ -13266,7 +15195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>147</v>
       </c>
@@ -13283,7 +15212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>148</v>
       </c>
@@ -13300,7 +15229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>149</v>
       </c>
@@ -13317,7 +15246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>150</v>
       </c>
@@ -13325,7 +15254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>151</v>
       </c>
@@ -13342,7 +15271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>152</v>
       </c>
@@ -13359,7 +15288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>153</v>
       </c>
@@ -13376,7 +15305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>154</v>
       </c>
@@ -13384,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>155</v>
       </c>
@@ -13401,7 +15330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>156</v>
       </c>
@@ -13418,7 +15347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>157</v>
       </c>
@@ -13435,7 +15364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>158</v>
       </c>
@@ -13452,7 +15381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>159</v>
       </c>
@@ -13469,7 +15398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160">
         <v>160</v>
       </c>
@@ -13486,7 +15415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>161</v>
       </c>
@@ -13503,7 +15432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>162</v>
       </c>
@@ -13520,7 +15449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>163</v>
       </c>
@@ -13537,7 +15466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>164</v>
       </c>
@@ -13554,7 +15483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>165</v>
       </c>
@@ -13571,7 +15500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>166</v>
       </c>
@@ -13588,7 +15517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>167</v>
       </c>
@@ -13605,7 +15534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>168</v>
       </c>
@@ -13622,7 +15551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169">
         <v>169</v>
       </c>
@@ -13639,7 +15568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170">
         <v>170</v>
       </c>
@@ -13656,7 +15585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171">
         <v>171</v>
       </c>
@@ -13673,7 +15602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172">
         <v>172</v>
       </c>
@@ -13690,7 +15619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173">
         <v>173</v>
       </c>
@@ -13698,7 +15627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>174</v>
       </c>
@@ -13715,7 +15644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175">
         <v>175</v>
       </c>
@@ -13732,7 +15661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176">
         <v>176</v>
       </c>
@@ -13740,7 +15669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177">
         <v>177</v>
       </c>
@@ -13748,7 +15677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178">
         <v>178</v>
       </c>
@@ -13756,7 +15685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179">
         <v>179</v>
       </c>
@@ -13773,7 +15702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180">
         <v>180</v>
       </c>
@@ -13790,7 +15719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181">
         <v>181</v>
       </c>
@@ -13807,7 +15736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182">
         <v>182</v>
       </c>
@@ -13824,7 +15753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183">
         <v>183</v>
       </c>
@@ -13832,7 +15761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184">
         <v>184</v>
       </c>
@@ -13849,7 +15778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185">
         <v>185</v>
       </c>
@@ -13857,7 +15786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186">
         <v>186</v>
       </c>
@@ -13865,7 +15794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187">
         <v>187</v>
       </c>
@@ -13873,7 +15802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188">
         <v>188</v>
       </c>
@@ -13890,7 +15819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189">
         <v>189</v>
       </c>
@@ -13907,7 +15836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190">
         <v>190</v>
       </c>
@@ -13924,7 +15853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191">
         <v>191</v>
       </c>
@@ -13941,7 +15870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192">
         <v>192</v>
       </c>
@@ -13958,7 +15887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193">
         <v>193</v>
       </c>
@@ -13966,7 +15895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194">
         <v>194</v>
       </c>
@@ -13983,7 +15912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195">
         <v>195</v>
       </c>
@@ -14000,7 +15929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196">
         <v>196</v>
       </c>
@@ -14017,7 +15946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197">
         <v>197</v>
       </c>
@@ -14025,7 +15954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198">
         <v>198</v>
       </c>
@@ -14042,7 +15971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199">
         <v>199</v>
       </c>
@@ -14050,7 +15979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200">
         <v>200</v>
       </c>
@@ -14067,7 +15996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201">
         <v>201</v>
       </c>
@@ -14075,7 +16004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202">
         <v>202</v>
       </c>
@@ -14083,7 +16012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203">
         <v>203</v>
       </c>
@@ -14091,7 +16020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204">
         <v>204</v>
       </c>
@@ -14099,7 +16028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205">
         <v>205</v>
       </c>
@@ -14107,7 +16036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206">
         <v>206</v>
       </c>
@@ -14115,7 +16044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207">
         <v>207</v>
       </c>
@@ -14123,7 +16052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208">
         <v>208</v>
       </c>
@@ -14131,7 +16060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209">
         <v>209</v>
       </c>
@@ -14148,7 +16077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210">
         <v>210</v>
       </c>
@@ -14165,7 +16094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211">
         <v>211</v>
       </c>
@@ -14182,7 +16111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212">
         <v>212</v>
       </c>
@@ -14190,7 +16119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213">
         <v>213</v>
       </c>
@@ -14207,7 +16136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214">
         <v>214</v>
       </c>
@@ -14224,7 +16153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215">
         <v>215</v>
       </c>
@@ -14232,7 +16161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216">
         <v>216</v>
       </c>
@@ -14249,7 +16178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217">
         <v>217</v>
       </c>
@@ -14257,7 +16186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218">
         <v>218</v>
       </c>
@@ -14265,7 +16194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219">
         <v>219</v>
       </c>
@@ -14282,7 +16211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220">
         <v>220</v>
       </c>
@@ -14290,7 +16219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221">
         <v>221</v>
       </c>
@@ -14307,7 +16236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222">
         <v>222</v>
       </c>
@@ -14324,7 +16253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223">
         <v>223</v>
       </c>
@@ -14332,7 +16261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224">
         <v>224</v>
       </c>
@@ -14340,7 +16269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225">
         <v>225</v>
       </c>
@@ -14357,7 +16286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226">
         <v>226</v>
       </c>
@@ -14365,7 +16294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227">
         <v>227</v>
       </c>
@@ -14382,7 +16311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228">
         <v>228</v>
       </c>
@@ -14399,7 +16328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229">
         <v>229</v>
       </c>
@@ -14416,7 +16345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230">
         <v>230</v>
       </c>
@@ -14424,7 +16353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231">
         <v>231</v>
       </c>
@@ -14432,7 +16361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232">
         <v>232</v>
       </c>
@@ -14449,7 +16378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233">
         <v>233</v>
       </c>
@@ -14457,7 +16386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234">
         <v>234</v>
       </c>
@@ -14474,7 +16403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235">
         <v>235</v>
       </c>
@@ -14491,7 +16420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236">
         <v>236</v>
       </c>
@@ -14499,7 +16428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237">
         <v>237</v>
       </c>
@@ -14507,7 +16436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238">
         <v>238</v>
       </c>
@@ -14515,7 +16444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239">
         <v>239</v>
       </c>
@@ -14532,7 +16461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240">
         <v>240</v>
       </c>
@@ -14540,7 +16469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241">
         <v>241</v>
       </c>
@@ -14548,7 +16477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B242">
         <v>243</v>
       </c>
@@ -14556,7 +16485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243">
         <v>244</v>
       </c>
@@ -14573,7 +16502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B244">
         <v>245</v>
       </c>
@@ -14590,7 +16519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245">
         <v>246</v>
       </c>
@@ -14607,7 +16536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B246">
         <v>247</v>
       </c>
@@ -14624,7 +16553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247">
         <v>248</v>
       </c>
@@ -14641,7 +16570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248">
         <v>250</v>
       </c>
@@ -14658,7 +16587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B249">
         <v>251</v>
       </c>
@@ -14666,7 +16595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B250">
         <v>252</v>
       </c>
@@ -14674,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251">
         <v>253</v>
       </c>
@@ -14682,7 +16611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B252">
         <v>254</v>
       </c>
@@ -14690,7 +16619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253">
         <v>255</v>
       </c>
@@ -14707,7 +16636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254">
         <v>256</v>
       </c>
@@ -14715,7 +16644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255">
         <v>257</v>
       </c>
@@ -14723,7 +16652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256">
         <v>258</v>
       </c>
@@ -14740,7 +16669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B257">
         <v>259</v>
       </c>
@@ -14757,7 +16686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B258">
         <v>260</v>
       </c>
@@ -14765,7 +16694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B259">
         <v>261</v>
       </c>
@@ -14773,7 +16702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B260">
         <v>262</v>
       </c>
@@ -14790,7 +16719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B261">
         <v>263</v>
       </c>
@@ -14807,7 +16736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B262">
         <v>264</v>
       </c>
@@ -14824,7 +16753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B263">
         <v>265</v>
       </c>
@@ -14832,7 +16761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B264">
         <v>266</v>
       </c>
@@ -14849,7 +16778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B265">
         <v>267</v>
       </c>
@@ -14866,7 +16795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266">
         <v>268</v>
       </c>
@@ -14883,7 +16812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B267">
         <v>269</v>
       </c>
@@ -14891,7 +16820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B268">
         <v>270</v>
       </c>
@@ -14908,7 +16837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B269">
         <v>271</v>
       </c>
@@ -14925,7 +16854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B270">
         <v>272</v>
       </c>
@@ -14942,7 +16871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B271">
         <v>273</v>
       </c>
@@ -14950,7 +16879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B272">
         <v>274</v>
       </c>
@@ -14967,7 +16896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B273">
         <v>275</v>
       </c>
@@ -14975,7 +16904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B274">
         <v>276</v>
       </c>
@@ -14992,7 +16921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B275">
         <v>277</v>
       </c>
@@ -15009,7 +16938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B276">
         <v>278</v>
       </c>
@@ -15017,7 +16946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B277">
         <v>279</v>
       </c>
@@ -15034,7 +16963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B278">
         <v>280</v>
       </c>
@@ -15042,7 +16971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B279">
         <v>281</v>
       </c>
@@ -15059,7 +16988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B280">
         <v>283</v>
       </c>
@@ -15076,7 +17005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B281">
         <v>284</v>
       </c>
@@ -15084,7 +17013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B282">
         <v>285</v>
       </c>
@@ -15092,7 +17021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B283">
         <v>286</v>
       </c>
@@ -15100,7 +17029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B284">
         <v>287</v>
       </c>
@@ -15117,7 +17046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B285">
         <v>288</v>
       </c>
@@ -15134,7 +17063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B286">
         <v>289</v>
       </c>
@@ -15151,7 +17080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B287">
         <v>290</v>
       </c>
@@ -15159,7 +17088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B288">
         <v>291</v>
       </c>
@@ -15167,7 +17096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B289">
         <v>292</v>
       </c>
@@ -15184,7 +17113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B290">
         <v>293</v>
       </c>
@@ -15192,7 +17121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B291">
         <v>294</v>
       </c>
@@ -15209,7 +17138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B292">
         <v>295</v>
       </c>
@@ -15226,7 +17155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B293">
         <v>296</v>
       </c>
@@ -15243,7 +17172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B294">
         <v>297</v>
       </c>
@@ -15251,7 +17180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B295">
         <v>298</v>
       </c>
@@ -15268,7 +17197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B296">
         <v>299</v>
       </c>
@@ -15276,7 +17205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B297">
         <v>300</v>
       </c>
@@ -15293,7 +17222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B298">
         <v>301</v>
       </c>
@@ -15301,7 +17230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B299">
         <v>302</v>
       </c>
@@ -15309,7 +17238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B300">
         <v>303</v>
       </c>
@@ -15326,7 +17255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B301">
         <v>304</v>
       </c>
@@ -15334,7 +17263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B302">
         <v>305</v>
       </c>
@@ -15342,7 +17271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B303">
         <v>306</v>
       </c>
@@ -15359,7 +17288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B304">
         <v>307</v>
       </c>
@@ -15376,7 +17305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B305">
         <v>308</v>
       </c>
@@ -15399,23 +17328,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="be5abc94-f5c1-4d1a-bb8b-c1b760299527" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D49FA83E5E82146959C563D8C83372A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d34f2b3ca8d0f8aa49e9667990f5acf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be5abc94-f5c1-4d1a-bb8b-c1b760299527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d48e03aedb35e3204aa5ddef03725f10" ns3:_="">
     <xsd:import namespace="be5abc94-f5c1-4d1a-bb8b-c1b760299527"/>
@@ -15603,31 +17515,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C165C48-857D-4F1F-853E-E2EA8BE91756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be5abc94-f5c1-4d1a-bb8b-c1b760299527"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A220B89-E841-4A29-B633-8E41AD719805}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="be5abc94-f5c1-4d1a-bb8b-c1b760299527" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5029F09E-7F82-4CF2-8896-BF7DBB0C33C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15643,4 +17548,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A220B89-E841-4A29-B633-8E41AD719805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C165C48-857D-4F1F-853E-E2EA8BE91756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be5abc94-f5c1-4d1a-bb8b-c1b760299527"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>